--- a/TimeEstimation.xlsx
+++ b/TimeEstimation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>DB Entwurf</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>Data abstraction layer</t>
+  </si>
+  <si>
+    <t>Data abstraction Object</t>
   </si>
 </sst>
 </file>
@@ -380,15 +383,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -404,7 +407,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -420,6 +423,14 @@
         <v>4</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
         <v>3</v>
       </c>
     </row>
